--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,54 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="eY0X4Dk2ZLsuM4Migg9h1KoDyM7ctCJuNb5xgv/TBpI="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G56">
+    <comment ref="G4" authorId="0">
       <text>
-        <t xml:space="preserve">======
-ID#AAABxkLJfq0
-Александр Белозор    (2025-12-16 17:52:59)
-По какому принципу взяты эти цифры для теста?</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>======
+ID#AAABuhHVUyo
+Александр Белозор    (2025-12-12 15:47:39)
+Открою секрет - дефектов в приложении больше чем здесь тест кейсов</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I4">
+    <comment ref="I4" authorId="0">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>======
 ID#AAABuhHVUyw
 Александр Белозор    (2025-12-12 15:52:12)
 У меня складывается впечатление  что вы стесняетесь лишний раз нажать в приложении на что то и сломать его - ваша задача найти ВСЕ дефекты. не стесняетесь писать тест кейсы - дайте волю своим желаниям ввести что то не так в приложении.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G4">
+    <comment ref="H22" authorId="0">
       <text>
-        <t xml:space="preserve">======
-ID#AAABuhHVUyo
-Александр Белозор    (2025-12-12 15:47:39)
-Открою секрет - дефектов в приложении больше чем здесь тест кейсов</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H22">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>======
 ID#AAABuhHVUyg
 Александр Белозор    (2025-12-12 15:45:42)
 не понимаю тест - написано введите операнд и в конце = а результат на ввод операндов или то что будет после =?
@@ -56,14 +79,25 @@
 ID#AAABxej6kSg
 Apple    (2025-12-12 19:05:14)
 так лучше?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>======
+ID#AAABxkLJfq0
+Александр Белозор    (2025-12-16 17:52:59)
+По какому принципу взяты эти цифры для теста?</t>
+        </r>
       </text>
     </comment>
   </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj6l2w06Puw7I6uRTZCG8a/ssaisg=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
@@ -124,19 +158,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Запуск приложнеие
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.Кликнуть  по иконке на рабочем столе 
 2.Дождаться появление окна приложение </t>
@@ -174,20 +210,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Отображение основных элементов интерфейса 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.Визуально проверить наличие заголовка ,меню
 2.Визуально проверить цифровой блок
@@ -195,10 +232,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -230,19 +268,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Эффект нажатия
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.Нажать на все кнопки приложение  мышью
 2.Наблюдать визуальную реакцию кнопок </t>
@@ -263,19 +303,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Отображающее поле
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1.Визуально убедиться что поле видно,читаемо
 и не перекрыто другими элементами 
@@ -298,18 +340,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Отображающее поле</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1.Ввести мышью  число 55
@@ -336,19 +380,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Умножение 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести клавиатурой цифру 1
 2 Нажать кнопку "*" умножение 
@@ -368,20 +414,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Деление 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести клавиатурой цифру 55
 2 Нажать кнопку "/" деление 
@@ -390,10 +437,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -414,19 +462,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести клавиатурой цифру 0
 2 Нажать кнопку "+" сложение 
@@ -443,19 +493,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Вычитание 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести клавиатурой цифру 155
 2 Нажать кнопку "-" вычитание  
@@ -478,19 +530,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Backspace (&lt;)
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1 Ввести цифры 123
 2 Нажать Backspace (&lt;)
@@ -512,19 +566,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;C&gt; Очищение поле
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.Ввести цифры 123
 2 Нажать &lt;С&gt;
@@ -543,19 +599,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Кнопка равно (=)
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1 Ввести клавиатурой  цифру 157
 2 Нажать кнопку "+"
@@ -577,19 +635,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Кнопка смены знака (+/-)
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести цифру 5
 2 Нажать кнопку (+/-)
@@ -611,20 +671,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Проверка клавиатурного ввода
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1.Визуально убедиться что поле видно,читаемо
 и не перекрыто другими элементами 
@@ -633,10 +694,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -648,18 +710,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Проверка клавиатурного ввода</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифру 54
@@ -679,18 +743,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>Проверка клавиатурного ввода</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифры 123
@@ -713,20 +779,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Переключение режима 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Нажать на кнопку "Выбор"
 2 В выпавшем списке нажать Инженерный 
@@ -753,20 +820,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Кнопка свернуть
  </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1.запускаем приложение
  2.нажимаем кнопку свернуть</t>
@@ -785,20 +853,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Кнопка “Развернуть/Восстановить”
  </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1.Запускаем приложение 
  2.Нажимаем кнрпку "Разавернуть/Восстановить"</t>
@@ -814,20 +883,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Кнопка Развернуть Свернуть
  </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1.Запускаем приложение 
  2.Нажимаем кнопку Развернуть/Восстановить
@@ -849,20 +919,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"Кнопка Закрыть"
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1.Запускаем приложение 
  2.Нажимаем кнопку Закрыть</t>
@@ -885,20 +956,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение положительного и отрицательного числа
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1.Нажимаем кнопку (-)
  2.Вводим цифру 1
@@ -916,18 +988,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t>Сложение двух отрицательных чисел</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Сложение двух отрицательных чисел</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
  1 Нажимаем кнопку (-)
@@ -947,18 +1021,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t>Сложение десятичных чисел</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Сложение десятичных чисел</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
  1 Вводим десятичное число 0.1
@@ -976,18 +1052,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t>Сложение с нулем</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Сложение с нулем</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
  1 Вводим цифру 100
@@ -1008,17 +1086,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Отображающее поле
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1 Вводи цифру 55
 2 Нажимаем кнопку "+"
@@ -1039,18 +1121,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Умножение чисел из 2 цифр
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести клавиатурой цифру 10
 2 Нажать кнопку "*" умножение 
@@ -1067,16 +1152,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Умножение чисел из 3 цифр</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести клавиатурой цифру 100
@@ -1094,16 +1183,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Умножение чисел из 4 цифр</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести клавиатурой цифру 1 000
@@ -1122,16 +1215,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Умножение чисел из 5 цифр</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести клавиатурой цифру 10 000
@@ -1153,16 +1250,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Диопазон допустимых минимальных значений ввода</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1.Ввести -1 000 000 
@@ -1181,16 +1282,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Диопазон допустимых минимальных значений ввода</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1.Ввести  -1 000 000 
@@ -1213,17 +1318,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Диопазон допустимых максимальных значений ввода
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 Ввести 1 000 000
 2 Смотрим поля </t>
@@ -1238,16 +1347,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Диопазон допустимых максимальных значений ввода</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести 1 000 000
@@ -1270,16 +1383,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Проверка нижней границы диапазона результата</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Вводим число 50 000 0000
@@ -1300,16 +1417,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Проверка нижней границы диапазона результата</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Вводим число  50 000 002
@@ -1331,16 +1452,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Проверка верхней  границы диапазона результата</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Вводим число 50 000 0000
@@ -1358,16 +1483,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Проверка верхней  границы диапазона результата</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Вводим число 50 000 0002
@@ -1386,23 +1515,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение чисел из двух цифр </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифру 10
@@ -1421,16 +1556,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение чисел из 3 цифр </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифру 100
@@ -1448,16 +1587,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение чисел из 4 цифр </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифру 1 000
@@ -1475,16 +1618,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение чисел из 5 цифр </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифру 10 000
@@ -1502,16 +1649,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение чисел из 6 цифр </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Ввести цифру 100 000
@@ -1529,17 +1680,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Сложение чисел из 7 цифр 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1 Ввести цифру 1 000 000
 2 Нажать кнопку "+" 
@@ -1556,16 +1711,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Сложение чисел из 8 цифр</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
 1 Ввести цифру 10 000 000
@@ -1586,16 +1745,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Переключение режима </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 1 Нажать на кнопку "Выбор"
@@ -1700,64 +1863,275 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="33">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1773,19 +2147,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE4D5"/>
-        <bgColor rgb="FFFBE4D5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
-    <border/>
+  <borders count="22">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1799,6 +2353,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1811,14 +2366,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1830,19 +2389,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1851,19 +2408,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1872,27 +2430,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1900,249 +2442,693 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <bottom style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="17" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="86">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2332,1657 +3318,1703 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A7:J251"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
-    <col customWidth="1" min="2" max="3" width="14.14"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="22.0"/>
-    <col customWidth="1" min="6" max="6" width="24.71"/>
-    <col customWidth="1" min="7" max="7" width="52.0"/>
-    <col customWidth="1" min="8" max="8" width="46.43"/>
-    <col customWidth="1" min="9" max="9" width="28.0"/>
-    <col customWidth="1" min="10" max="10" width="22.14"/>
+    <col min="1" max="1" width="11.8571428571429" customWidth="1"/>
+    <col min="2" max="3" width="14.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="22.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="24.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="52" customWidth="1"/>
+    <col min="8" max="8" width="46.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="22.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" ht="26.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" ht="26.25" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" ht="34.5" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="45"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="11" t="s">
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A29" s="16"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A30" s="16"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A31" s="16"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A32" s="19"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="7" t="s">
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A34" s="16"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A35" s="16"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A36" s="16"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A37" s="19"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A39" s="16"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A40" s="16"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A41" s="16"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A42" s="19"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="7" t="s">
+      <c r="J43" s="42"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A44" s="16"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A45" s="16"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A46" s="16"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="43"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A47" s="19"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A48" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="12"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="12"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="7" t="s">
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A49" s="16"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="17"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A50" s="16"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="17"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A51" s="19"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="41"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="9"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="7" t="s">
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A53" s="16"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A54" s="16"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I56" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="14"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="18"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="6" t="s">
+      <c r="J56" s="42"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A57" s="16"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A58" s="16"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A59" s="16"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A60" s="16"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="43"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A61" s="16"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="43"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A62" s="19"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G63" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H63" s="35" t="s">
+      <c r="H63" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="I63" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="9"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="14"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="7" t="s">
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="43"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="43"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="43"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="43"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A70" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="9"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="14"/>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="14"/>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="16"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="7" t="s">
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A71" s="16"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="43"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A72" s="16"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="43"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A73" s="16"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="43"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A74" s="16"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="43"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A75" s="19"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A76" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="30" t="s">
+      <c r="G76" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="9"/>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="14"/>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="14"/>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="16"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="7" t="s">
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A77" s="16"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="43"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A78" s="16"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="43"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A79" s="16"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="43"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A80" s="16"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="43"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A81" s="16"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="43"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A82" s="16"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="43"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A83" s="19"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A84" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G84" s="30" t="s">
+      <c r="G84" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="20" t="s">
+      <c r="H84" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I84" s="32" t="s">
+      <c r="I84" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="9"/>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="14"/>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="16"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="7" t="s">
+      <c r="J84" s="42"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A85" s="16"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="43"/>
+    </row>
+    <row r="86" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A86" s="16"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="43"/>
+    </row>
+    <row r="87" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A87" s="19"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="41"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A88" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H88" s="38" t="s">
+      <c r="H88" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="32" t="s">
+      <c r="I88" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="9"/>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="14"/>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="14"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="41" t="s">
+      <c r="J88" s="42"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A89" s="16"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="43"/>
+    </row>
+    <row r="90" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A90" s="16"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="43"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A91" s="16"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="43"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A92" s="19"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="41"/>
+    </row>
+    <row r="93" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A93" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G93" s="44" t="s">
+      <c r="G93" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="H93" s="45" t="s">
+      <c r="H93" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="I93" s="41" t="s">
+      <c r="I93" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J93" s="46"/>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="47"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="12"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="49"/>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="47"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="12"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="49"/>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="50"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="52"/>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="53" t="s">
+      <c r="J93" s="65"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A94" s="54"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="17"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="66"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A95" s="54"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="17"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="66"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A96" s="56"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="67"/>
+    </row>
+    <row r="97" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A97" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="48"/>
-      <c r="E97" s="53" t="s">
+      <c r="D97" s="55"/>
+      <c r="E97" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F97" s="54" t="s">
+      <c r="F97" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G97" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H97" s="56" t="s">
+      <c r="H97" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="I97" s="53" t="s">
+      <c r="I97" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J97" s="49"/>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="47"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="12"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="49"/>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="50"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="52"/>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="53" t="s">
+      <c r="J97" s="66"/>
+    </row>
+    <row r="98" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A98" s="54"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="17"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="66"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="67"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A100" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="54" t="s">
+      <c r="B100" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D100" s="54" t="s">
+      <c r="D100" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E100" s="53" t="s">
+      <c r="E100" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F100" s="54" t="s">
+      <c r="F100" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="56" t="s">
+      <c r="H100" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="I100" s="53" t="s">
+      <c r="I100" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J100" s="49"/>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="47"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="12"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="49"/>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="47"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="12"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="49"/>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="47"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="12"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="49"/>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="50"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="52"/>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="57" t="s">
+      <c r="J100" s="66"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A101" s="54"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="17"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="61"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A102" s="54"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="17"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="61"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A103" s="54"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="17"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="61"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A104" s="56"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="63"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A105" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="54" t="s">
+      <c r="C105" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="54" t="s">
+      <c r="E105" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F105" s="53" t="s">
+      <c r="F105" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G105" s="55" t="s">
+      <c r="G105" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H105" s="58" t="s">
+      <c r="H105" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="53" t="s">
+      <c r="I105" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J105" s="49"/>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
+      <c r="J105" s="61"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1" spans="1:10">
       <c r="A106" s="59"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="12"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="49"/>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
+      <c r="B106" s="54"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="17"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="61"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1" spans="1:10">
       <c r="A107" s="60"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="52"/>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="53" t="s">
+      <c r="B107" s="56"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="63"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A108" s="54" t="s">
         <v>112</v>
       </c>
       <c r="B108" s="61" t="s">
@@ -3997,94 +5029,94 @@
       <c r="E108" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F108" s="63" t="s">
+      <c r="F108" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G108" s="55" t="s">
+      <c r="G108" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="H108" s="54" t="s">
+      <c r="H108" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="I108" s="64" t="s">
+      <c r="I108" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J108" s="49"/>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="47"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="49"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="47"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="49"/>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="47"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="49"/>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="47"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="49"/>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="47"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="47"/>
-      <c r="J113" s="49"/>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="50"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="52"/>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="53" t="s">
+      <c r="J108" s="61"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A109" s="54"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="61"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A110" s="54"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="61"/>
+    </row>
+    <row r="111" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A111" s="54"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="61"/>
+    </row>
+    <row r="112" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A112" s="54"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="61"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A113" s="54"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="61"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A114" s="56"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="63"/>
+    </row>
+    <row r="115" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A115" s="54" t="s">
         <v>117</v>
       </c>
       <c r="B115" s="61" t="s">
@@ -4099,100 +5131,100 @@
       <c r="E115" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F115" s="63" t="s">
+      <c r="F115" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G115" s="65" t="s">
+      <c r="G115" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H115" s="66" t="s">
+      <c r="H115" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="I115" s="64" t="s">
+      <c r="I115" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J115" s="49"/>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="47"/>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="12"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="49"/>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="47"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="12"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="49"/>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="47"/>
-      <c r="B118" s="49"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="12"/>
-      <c r="I118" s="47"/>
-      <c r="J118" s="49"/>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="47"/>
-      <c r="B119" s="49"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="12"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="49"/>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="47"/>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="12"/>
-      <c r="I120" s="47"/>
-      <c r="J120" s="49"/>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="47"/>
-      <c r="B121" s="49"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="12"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="49"/>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="50"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="52"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="53" t="s">
+      <c r="J115" s="61"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A116" s="54"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="17"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="61"/>
+    </row>
+    <row r="117" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A117" s="54"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="17"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="61"/>
+    </row>
+    <row r="118" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A118" s="54"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="17"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="61"/>
+    </row>
+    <row r="119" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A119" s="54"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="17"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="61"/>
+    </row>
+    <row r="120" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A120" s="54"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="17"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="61"/>
+    </row>
+    <row r="121" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A121" s="54"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="17"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="61"/>
+    </row>
+    <row r="122" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A122" s="56"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="63"/>
+    </row>
+    <row r="123" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A123" s="54" t="s">
         <v>120</v>
       </c>
       <c r="B123" s="61" t="s">
@@ -4207,67 +5239,67 @@
       <c r="E123" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F123" s="63" t="s">
+      <c r="F123" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G123" s="65" t="s">
+      <c r="G123" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H123" s="54" t="s">
+      <c r="H123" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="I123" s="64" t="s">
+      <c r="I123" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J123" s="49"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="47"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="12"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="49"/>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="47"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="12"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="49"/>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="47"/>
-      <c r="B126" s="49"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="12"/>
-      <c r="I126" s="47"/>
-      <c r="J126" s="49"/>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="50"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="50"/>
-      <c r="J127" s="52"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="53" t="s">
+      <c r="J123" s="61"/>
+    </row>
+    <row r="124" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A124" s="54"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="17"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="61"/>
+    </row>
+    <row r="125" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A125" s="54"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="17"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="61"/>
+    </row>
+    <row r="126" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A126" s="54"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="17"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="61"/>
+    </row>
+    <row r="127" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A127" s="56"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="56"/>
+      <c r="J127" s="63"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A128" s="54" t="s">
         <v>123</v>
       </c>
       <c r="B128" s="61" t="s">
@@ -4282,137 +5314,137 @@
       <c r="E128" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F128" s="63" t="s">
+      <c r="F128" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G128" s="65" t="s">
+      <c r="G128" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="H128" s="66" t="s">
+      <c r="H128" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="I128" s="64" t="s">
+      <c r="I128" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J128" s="49"/>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="47"/>
-      <c r="B129" s="49"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="12"/>
-      <c r="I129" s="47"/>
-      <c r="J129" s="49"/>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="47"/>
-      <c r="B130" s="49"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="12"/>
-      <c r="I130" s="47"/>
-      <c r="J130" s="49"/>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="47"/>
-      <c r="B131" s="49"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="12"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="49"/>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="47"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="12"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="49"/>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="50"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="50"/>
-      <c r="J133" s="52"/>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="67" t="s">
+      <c r="J128" s="61"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A129" s="54"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="17"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="61"/>
+    </row>
+    <row r="130" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A130" s="54"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="17"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="61"/>
+    </row>
+    <row r="131" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A131" s="54"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="17"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="61"/>
+    </row>
+    <row r="132" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A132" s="54"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="61"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="17"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="61"/>
+    </row>
+    <row r="133" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A133" s="56"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="63"/>
+    </row>
+    <row r="134" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A134" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B134" s="68" t="s">
+      <c r="B134" t="s">
         <v>127</v>
       </c>
       <c r="C134" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="68" t="s">
+      <c r="D134" t="s">
         <v>32</v>
       </c>
       <c r="E134" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F134" s="67" t="s">
+      <c r="F134" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G134" s="67" t="s">
+      <c r="G134" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H134" s="67" t="s">
+      <c r="H134" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="I134" s="67" t="s">
+      <c r="I134" s="68" t="s">
         <v>130</v>
       </c>
       <c r="J134" s="70"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1" spans="1:10">
       <c r="A135" s="70"/>
       <c r="C135" s="71"/>
       <c r="E135" s="71"/>
       <c r="F135" s="70"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
       <c r="I135" s="70"/>
       <c r="J135" s="70"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1" spans="1:10">
       <c r="A136" s="70"/>
       <c r="C136" s="71"/>
       <c r="E136" s="71"/>
       <c r="F136" s="70"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
       <c r="I136" s="70"/>
       <c r="J136" s="70"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1" spans="1:10">
       <c r="A137" s="70"/>
       <c r="C137" s="71"/>
       <c r="E137" s="71"/>
       <c r="F137" s="70"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
       <c r="I137" s="70"/>
       <c r="J137" s="70"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1" spans="1:10">
       <c r="A138" s="72"/>
       <c r="B138" s="73"/>
       <c r="C138" s="74"/>
@@ -4424,20 +5456,20 @@
       <c r="I138" s="72"/>
       <c r="J138" s="72"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="68" t="s">
+    <row r="139" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A139" t="s">
         <v>131</v>
       </c>
       <c r="B139" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C139" s="68" t="s">
+      <c r="C139" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E139" s="68" t="s">
+      <c r="E139" t="s">
         <v>48</v>
       </c>
       <c r="F139" s="76" t="s">
@@ -4449,245 +5481,245 @@
       <c r="H139" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="I139" s="68" t="s">
+      <c r="I139" t="s">
         <v>22</v>
       </c>
-      <c r="J139" s="78"/>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
+      <c r="J139" s="82"/>
+    </row>
+    <row r="140" ht="14.25" customHeight="1" spans="2:10">
       <c r="B140" s="71"/>
       <c r="D140" s="71"/>
       <c r="F140" s="71"/>
       <c r="H140" s="71"/>
       <c r="J140" s="71"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1" spans="2:10">
       <c r="B141" s="71"/>
       <c r="D141" s="71"/>
       <c r="F141" s="71"/>
       <c r="H141" s="71"/>
       <c r="J141" s="71"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1" spans="2:10">
       <c r="B142" s="71"/>
       <c r="D142" s="71"/>
       <c r="F142" s="71"/>
       <c r="H142" s="71"/>
       <c r="J142" s="71"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1" spans="1:10">
       <c r="A143" s="73"/>
       <c r="B143" s="74"/>
       <c r="C143" s="73"/>
       <c r="D143" s="74"/>
       <c r="E143" s="73"/>
       <c r="F143" s="74"/>
-      <c r="G143" s="27"/>
+      <c r="G143" s="30"/>
       <c r="H143" s="74"/>
       <c r="I143" s="73"/>
       <c r="J143" s="74"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="68" t="s">
+    <row r="144" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A144" t="s">
         <v>134</v>
       </c>
       <c r="B144" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="C144" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E144" s="68" t="s">
+      <c r="E144" t="s">
         <v>48</v>
       </c>
       <c r="F144" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="G144" s="68" t="s">
+      <c r="G144" t="s">
         <v>135</v>
       </c>
       <c r="H144" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="I144" s="68" t="s">
+      <c r="I144" t="s">
         <v>22</v>
       </c>
       <c r="J144" s="71"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1" spans="2:10">
       <c r="B145" s="71"/>
       <c r="D145" s="71"/>
       <c r="F145" s="71"/>
       <c r="H145" s="71"/>
       <c r="J145" s="71"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1" spans="2:10">
       <c r="B146" s="71"/>
       <c r="D146" s="71"/>
       <c r="F146" s="71"/>
       <c r="H146" s="71"/>
       <c r="J146" s="71"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1" spans="2:10">
       <c r="B147" s="71"/>
       <c r="D147" s="71"/>
       <c r="F147" s="71"/>
       <c r="H147" s="71"/>
       <c r="J147" s="71"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1" spans="2:10">
       <c r="B148" s="71"/>
       <c r="D148" s="71"/>
       <c r="F148" s="71"/>
       <c r="H148" s="71"/>
       <c r="J148" s="71"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="79" t="s">
+    <row r="149" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A149" s="78" t="s">
         <v>137</v>
       </c>
       <c r="B149" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="80" t="s">
+      <c r="C149" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="80" t="s">
+      <c r="E149" s="79" t="s">
         <v>48</v>
       </c>
       <c r="F149" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="G149" s="80" t="s">
+      <c r="G149" s="79" t="s">
         <v>138</v>
       </c>
       <c r="H149" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="I149" s="80" t="s">
+      <c r="I149" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="J149" s="78"/>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="81"/>
+      <c r="J149" s="82"/>
+    </row>
+    <row r="150" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A150" s="80"/>
       <c r="B150" s="71"/>
       <c r="D150" s="71"/>
       <c r="F150" s="71"/>
-      <c r="H150" s="12"/>
+      <c r="H150" s="17"/>
       <c r="J150" s="71"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="81"/>
+    <row r="151" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A151" s="80"/>
       <c r="B151" s="71"/>
       <c r="D151" s="71"/>
       <c r="F151" s="71"/>
       <c r="H151" s="71"/>
       <c r="J151" s="71"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="81"/>
+    <row r="152" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A152" s="80"/>
       <c r="B152" s="71"/>
       <c r="D152" s="71"/>
       <c r="F152" s="71"/>
       <c r="H152" s="71"/>
       <c r="J152" s="71"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="82"/>
+    <row r="153" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A153" s="81"/>
       <c r="B153" s="74"/>
       <c r="C153" s="73"/>
       <c r="D153" s="74"/>
       <c r="E153" s="73"/>
       <c r="F153" s="74"/>
-      <c r="G153" s="27"/>
+      <c r="G153" s="30"/>
       <c r="H153" s="74"/>
       <c r="I153" s="73"/>
       <c r="J153" s="74"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="79" t="s">
+    <row r="154" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A154" s="78" t="s">
         <v>140</v>
       </c>
       <c r="B154" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E154" s="80" t="s">
+      <c r="E154" s="79" t="s">
         <v>48</v>
       </c>
       <c r="F154" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="G154" s="80" t="s">
+      <c r="G154" s="79" t="s">
         <v>141</v>
       </c>
       <c r="H154" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="I154" s="80" t="s">
+      <c r="I154" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="J154" s="78"/>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="81"/>
+      <c r="J154" s="82"/>
+    </row>
+    <row r="155" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A155" s="80"/>
       <c r="B155" s="71"/>
       <c r="D155" s="71"/>
       <c r="F155" s="71"/>
-      <c r="H155" s="12"/>
+      <c r="H155" s="17"/>
       <c r="J155" s="71"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="81"/>
+    <row r="156" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A156" s="80"/>
       <c r="B156" s="71"/>
       <c r="D156" s="71"/>
       <c r="F156" s="71"/>
-      <c r="H156" s="12"/>
+      <c r="H156" s="17"/>
       <c r="J156" s="71"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="81"/>
+    <row r="157" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A157" s="80"/>
       <c r="B157" s="71"/>
       <c r="D157" s="71"/>
       <c r="F157" s="71"/>
       <c r="H157" s="71"/>
       <c r="J157" s="71"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="82"/>
+    <row r="158" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A158" s="81"/>
       <c r="B158" s="74"/>
       <c r="C158" s="73"/>
       <c r="D158" s="74"/>
       <c r="E158" s="73"/>
       <c r="F158" s="74"/>
-      <c r="G158" s="27"/>
+      <c r="G158" s="30"/>
       <c r="H158" s="74"/>
       <c r="I158" s="73"/>
       <c r="J158" s="74"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="67" t="s">
+    <row r="159" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A159" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="B159" s="68" t="s">
+      <c r="B159" t="s">
         <v>144</v>
       </c>
       <c r="C159" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="68" t="s">
+      <c r="D159" t="s">
         <v>32</v>
       </c>
       <c r="E159" s="69" t="s">
@@ -4696,7 +5728,7 @@
       <c r="G159" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="H159" s="68" t="s">
+      <c r="H159" t="s">
         <v>146</v>
       </c>
       <c r="I159" s="69" t="s">
@@ -4704,45 +5736,45 @@
       </c>
       <c r="J159" s="70"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1" spans="1:10">
       <c r="A160" s="70"/>
       <c r="C160" s="71"/>
       <c r="E160" s="71"/>
-      <c r="G160" s="12"/>
+      <c r="G160" s="17"/>
       <c r="I160" s="71"/>
       <c r="J160" s="70"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1" spans="1:10">
       <c r="A161" s="70"/>
       <c r="C161" s="71"/>
       <c r="E161" s="71"/>
-      <c r="G161" s="12"/>
+      <c r="G161" s="17"/>
       <c r="I161" s="71"/>
       <c r="J161" s="70"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1" spans="1:10">
       <c r="A162" s="72"/>
       <c r="B162" s="73"/>
       <c r="C162" s="74"/>
       <c r="D162" s="73"/>
       <c r="E162" s="74"/>
       <c r="F162" s="73"/>
-      <c r="G162" s="17"/>
+      <c r="G162" s="20"/>
       <c r="H162" s="73"/>
       <c r="I162" s="74"/>
       <c r="J162" s="72"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="67" t="s">
+    <row r="163" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A163" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B163" s="68" t="s">
+      <c r="B163" t="s">
         <v>144</v>
       </c>
       <c r="C163" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D163" s="68" t="s">
+      <c r="D163" t="s">
         <v>32</v>
       </c>
       <c r="E163" s="69" t="s">
@@ -4751,7 +5783,7 @@
       <c r="G163" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H163" s="68" t="s">
+      <c r="H163" t="s">
         <v>150</v>
       </c>
       <c r="I163" s="69" t="s">
@@ -4759,47 +5791,47 @@
       </c>
       <c r="J163" s="70"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1" spans="1:10">
       <c r="A164" s="70"/>
       <c r="C164" s="71"/>
       <c r="E164" s="71"/>
-      <c r="G164" s="12"/>
+      <c r="G164" s="17"/>
       <c r="I164" s="71"/>
       <c r="J164" s="70"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1" spans="1:10">
       <c r="A165" s="70"/>
       <c r="C165" s="71"/>
       <c r="E165" s="71"/>
-      <c r="G165" s="12"/>
+      <c r="G165" s="17"/>
       <c r="I165" s="71"/>
       <c r="J165" s="70"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1" spans="1:10">
       <c r="A166" s="70"/>
       <c r="C166" s="71"/>
       <c r="E166" s="71"/>
-      <c r="G166" s="12"/>
+      <c r="G166" s="17"/>
       <c r="I166" s="71"/>
       <c r="J166" s="70"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1" spans="1:10">
       <c r="A167" s="72"/>
       <c r="B167" s="73"/>
       <c r="C167" s="74"/>
       <c r="D167" s="73"/>
       <c r="E167" s="74"/>
       <c r="F167" s="73"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="27"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="30"/>
       <c r="I167" s="74"/>
       <c r="J167" s="72"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="67" t="s">
+    <row r="168" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A168" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="B168" s="68" t="s">
+      <c r="B168" t="s">
         <v>152</v>
       </c>
       <c r="C168" s="69" t="s">
@@ -4811,7 +5843,7 @@
       <c r="G168" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="H168" s="68" t="s">
+      <c r="H168" t="s">
         <v>154</v>
       </c>
       <c r="I168" s="69" t="s">
@@ -4819,37 +5851,37 @@
       </c>
       <c r="J168" s="70"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1" spans="1:10">
       <c r="A169" s="70"/>
       <c r="C169" s="71"/>
       <c r="E169" s="71"/>
-      <c r="G169" s="12"/>
+      <c r="G169" s="17"/>
       <c r="I169" s="71"/>
       <c r="J169" s="70"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1" spans="1:10">
       <c r="A170" s="72"/>
       <c r="B170" s="73"/>
       <c r="C170" s="74"/>
       <c r="D170" s="73"/>
       <c r="E170" s="74"/>
       <c r="F170" s="73"/>
-      <c r="G170" s="17"/>
+      <c r="G170" s="20"/>
       <c r="H170" s="73"/>
       <c r="I170" s="74"/>
       <c r="J170" s="72"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="67" t="s">
+    <row r="171" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A171" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B171" s="68" t="s">
+      <c r="B171" t="s">
         <v>144</v>
       </c>
       <c r="C171" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D171" s="68" t="s">
+      <c r="D171" t="s">
         <v>32</v>
       </c>
       <c r="E171" s="69" t="s">
@@ -4858,7 +5890,7 @@
       <c r="G171" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="H171" s="68" t="s">
+      <c r="H171" t="s">
         <v>157</v>
       </c>
       <c r="I171" s="69" t="s">
@@ -4866,69 +5898,69 @@
       </c>
       <c r="J171" s="70"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1" spans="1:10">
       <c r="A172" s="70"/>
       <c r="C172" s="71"/>
       <c r="E172" s="71"/>
-      <c r="G172" s="12"/>
+      <c r="G172" s="17"/>
       <c r="I172" s="71"/>
       <c r="J172" s="70"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1" spans="1:10">
       <c r="A173" s="70"/>
       <c r="C173" s="71"/>
       <c r="E173" s="71"/>
-      <c r="G173" s="12"/>
+      <c r="G173" s="17"/>
       <c r="I173" s="71"/>
       <c r="J173" s="70"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1" spans="1:10">
       <c r="A174" s="70"/>
       <c r="C174" s="71"/>
       <c r="E174" s="71"/>
-      <c r="G174" s="12"/>
+      <c r="G174" s="17"/>
       <c r="I174" s="71"/>
       <c r="J174" s="70"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1" spans="1:10">
       <c r="A175" s="70"/>
       <c r="C175" s="71"/>
       <c r="E175" s="71"/>
-      <c r="G175" s="12"/>
+      <c r="G175" s="17"/>
       <c r="I175" s="71"/>
       <c r="J175" s="70"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1" spans="1:10">
       <c r="A176" s="70"/>
       <c r="C176" s="71"/>
       <c r="E176" s="71"/>
-      <c r="G176" s="12"/>
+      <c r="G176" s="17"/>
       <c r="I176" s="71"/>
       <c r="J176" s="70"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1" spans="1:10">
       <c r="A177" s="72"/>
       <c r="B177" s="73"/>
       <c r="C177" s="74"/>
       <c r="D177" s="73"/>
       <c r="E177" s="74"/>
       <c r="F177" s="73"/>
-      <c r="G177" s="17"/>
+      <c r="G177" s="20"/>
       <c r="H177" s="73"/>
       <c r="I177" s="74"/>
       <c r="J177" s="72"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="67" t="s">
+    <row r="178" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A178" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B178" s="68" t="s">
+      <c r="B178" t="s">
         <v>159</v>
       </c>
       <c r="C178" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D178" s="68" t="s">
+      <c r="D178" t="s">
         <v>32</v>
       </c>
       <c r="E178" s="69" t="s">
@@ -4937,7 +5969,7 @@
       <c r="G178" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="H178" s="68" t="s">
+      <c r="H178" t="s">
         <v>161</v>
       </c>
       <c r="I178" s="69" t="s">
@@ -4945,77 +5977,77 @@
       </c>
       <c r="J178" s="70"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1" spans="1:10">
       <c r="A179" s="70"/>
       <c r="C179" s="71"/>
       <c r="E179" s="71"/>
-      <c r="G179" s="12"/>
+      <c r="G179" s="17"/>
       <c r="I179" s="71"/>
       <c r="J179" s="70"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1" spans="1:10">
       <c r="A180" s="70"/>
       <c r="C180" s="71"/>
       <c r="E180" s="71"/>
-      <c r="G180" s="12"/>
+      <c r="G180" s="17"/>
       <c r="I180" s="71"/>
       <c r="J180" s="70"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1" spans="1:10">
       <c r="A181" s="70"/>
       <c r="C181" s="71"/>
       <c r="E181" s="71"/>
-      <c r="G181" s="12"/>
+      <c r="G181" s="17"/>
       <c r="I181" s="71"/>
       <c r="J181" s="70"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1" spans="1:10">
       <c r="A182" s="70"/>
       <c r="C182" s="71"/>
       <c r="E182" s="71"/>
-      <c r="G182" s="12"/>
+      <c r="G182" s="17"/>
       <c r="I182" s="71"/>
       <c r="J182" s="70"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1" spans="1:10">
       <c r="A183" s="70"/>
       <c r="C183" s="71"/>
       <c r="E183" s="71"/>
-      <c r="G183" s="12"/>
+      <c r="G183" s="17"/>
       <c r="I183" s="71"/>
       <c r="J183" s="70"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" customHeight="1" spans="1:10">
       <c r="A184" s="70"/>
       <c r="C184" s="71"/>
       <c r="E184" s="71"/>
-      <c r="G184" s="12"/>
+      <c r="G184" s="17"/>
       <c r="I184" s="71"/>
       <c r="J184" s="70"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" customHeight="1" spans="1:10">
       <c r="A185" s="72"/>
       <c r="B185" s="73"/>
       <c r="C185" s="74"/>
       <c r="D185" s="73"/>
       <c r="E185" s="74"/>
       <c r="F185" s="73"/>
-      <c r="G185" s="17"/>
+      <c r="G185" s="20"/>
       <c r="H185" s="73"/>
       <c r="I185" s="74"/>
       <c r="J185" s="72"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="67" t="s">
+    <row r="186" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A186" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B186" s="68" t="s">
+      <c r="B186" t="s">
         <v>159</v>
       </c>
       <c r="C186" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D186" s="68" t="s">
+      <c r="D186" t="s">
         <v>32</v>
       </c>
       <c r="E186" s="69" t="s">
@@ -5024,7 +6056,7 @@
       <c r="G186" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H186" s="68" t="s">
+      <c r="H186" t="s">
         <v>164</v>
       </c>
       <c r="I186" s="69" t="s">
@@ -5032,84 +6064,84 @@
       </c>
       <c r="J186" s="70"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" customHeight="1" spans="1:10">
       <c r="A187" s="70"/>
       <c r="C187" s="71"/>
       <c r="E187" s="71"/>
-      <c r="G187" s="12"/>
+      <c r="G187" s="17"/>
       <c r="I187" s="71"/>
       <c r="J187" s="70"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" customHeight="1" spans="1:10">
       <c r="A188" s="70"/>
       <c r="C188" s="71"/>
       <c r="E188" s="71"/>
-      <c r="G188" s="12"/>
+      <c r="G188" s="17"/>
       <c r="I188" s="71"/>
       <c r="J188" s="70"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" customHeight="1" spans="1:10">
       <c r="A189" s="70"/>
       <c r="C189" s="71"/>
       <c r="E189" s="71"/>
-      <c r="G189" s="12"/>
+      <c r="G189" s="17"/>
       <c r="I189" s="71"/>
       <c r="J189" s="70"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" customHeight="1" spans="1:10">
       <c r="A190" s="70"/>
       <c r="C190" s="71"/>
       <c r="E190" s="71"/>
-      <c r="G190" s="12"/>
+      <c r="G190" s="17"/>
       <c r="I190" s="71"/>
       <c r="J190" s="70"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" customHeight="1" spans="1:10">
       <c r="A191" s="70"/>
       <c r="C191" s="71"/>
       <c r="E191" s="71"/>
-      <c r="G191" s="12"/>
+      <c r="G191" s="17"/>
       <c r="I191" s="71"/>
       <c r="J191" s="70"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" customHeight="1" spans="1:10">
       <c r="A192" s="70"/>
       <c r="C192" s="71"/>
       <c r="E192" s="71"/>
-      <c r="G192" s="12"/>
+      <c r="G192" s="17"/>
       <c r="I192" s="71"/>
       <c r="J192" s="70"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" customHeight="1" spans="1:10">
       <c r="A193" s="72"/>
       <c r="B193" s="73"/>
       <c r="C193" s="74"/>
       <c r="D193" s="73"/>
       <c r="E193" s="74"/>
       <c r="F193" s="73"/>
-      <c r="G193" s="17"/>
+      <c r="G193" s="20"/>
       <c r="H193" s="73"/>
       <c r="I193" s="74"/>
       <c r="J193" s="72"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="67" t="s">
+    <row r="194" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A194" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="B194" s="68" t="s">
+      <c r="B194" t="s">
         <v>159</v>
       </c>
       <c r="C194" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D194" s="68" t="s">
+      <c r="D194" t="s">
         <v>32</v>
       </c>
       <c r="E194" s="71"/>
       <c r="G194" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="H194" s="68" t="s">
+      <c r="H194" t="s">
         <v>167</v>
       </c>
       <c r="I194" s="69" t="s">
@@ -5117,53 +6149,53 @@
       </c>
       <c r="J194" s="70"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" customHeight="1" spans="1:10">
       <c r="A195" s="70"/>
       <c r="C195" s="71"/>
       <c r="E195" s="71"/>
-      <c r="G195" s="12"/>
+      <c r="G195" s="17"/>
       <c r="I195" s="71"/>
       <c r="J195" s="70"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" customHeight="1" spans="1:10">
       <c r="A196" s="70"/>
       <c r="C196" s="71"/>
       <c r="E196" s="71"/>
-      <c r="G196" s="12"/>
+      <c r="G196" s="17"/>
       <c r="I196" s="71"/>
       <c r="J196" s="70"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" customHeight="1" spans="1:10">
       <c r="A197" s="70"/>
       <c r="C197" s="71"/>
       <c r="E197" s="71"/>
-      <c r="G197" s="12"/>
+      <c r="G197" s="17"/>
       <c r="I197" s="71"/>
       <c r="J197" s="70"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" customHeight="1" spans="1:10">
       <c r="A198" s="72"/>
       <c r="B198" s="73"/>
       <c r="C198" s="74"/>
       <c r="D198" s="73"/>
       <c r="E198" s="74"/>
       <c r="F198" s="73"/>
-      <c r="G198" s="17"/>
+      <c r="G198" s="20"/>
       <c r="H198" s="73"/>
       <c r="I198" s="74"/>
       <c r="J198" s="72"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
-      <c r="A199" s="67" t="s">
+    <row r="199" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A199" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B199" s="68" t="s">
+      <c r="B199" t="s">
         <v>159</v>
       </c>
       <c r="C199" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D199" s="68" t="s">
+      <c r="D199" t="s">
         <v>32</v>
       </c>
       <c r="E199" s="69" t="s">
@@ -5172,7 +6204,7 @@
       <c r="G199" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="H199" s="68" t="s">
+      <c r="H199" t="s">
         <v>170</v>
       </c>
       <c r="I199" s="69" t="s">
@@ -5180,61 +6212,61 @@
       </c>
       <c r="J199" s="70"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" customHeight="1" spans="1:10">
       <c r="A200" s="70"/>
       <c r="C200" s="71"/>
       <c r="E200" s="71"/>
-      <c r="G200" s="12"/>
+      <c r="G200" s="17"/>
       <c r="I200" s="71"/>
       <c r="J200" s="70"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" customHeight="1" spans="1:10">
       <c r="A201" s="70"/>
       <c r="C201" s="71"/>
       <c r="E201" s="71"/>
-      <c r="G201" s="12"/>
+      <c r="G201" s="17"/>
       <c r="I201" s="71"/>
       <c r="J201" s="70"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" customHeight="1" spans="1:10">
       <c r="A202" s="70"/>
       <c r="C202" s="71"/>
       <c r="E202" s="71"/>
-      <c r="G202" s="12"/>
+      <c r="G202" s="17"/>
       <c r="I202" s="71"/>
       <c r="J202" s="70"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1" spans="1:10">
       <c r="A203" s="70"/>
       <c r="C203" s="71"/>
       <c r="E203" s="71"/>
-      <c r="G203" s="12"/>
+      <c r="G203" s="17"/>
       <c r="I203" s="71"/>
       <c r="J203" s="70"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" customHeight="1" spans="1:10">
       <c r="A204" s="72"/>
       <c r="B204" s="73"/>
       <c r="C204" s="74"/>
       <c r="D204" s="73"/>
       <c r="E204" s="74"/>
       <c r="F204" s="73"/>
-      <c r="G204" s="17"/>
+      <c r="G204" s="20"/>
       <c r="H204" s="73"/>
       <c r="I204" s="74"/>
       <c r="J204" s="72"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" customHeight="1" spans="1:10">
       <c r="A205" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="68" t="s">
+      <c r="B205" t="s">
         <v>57</v>
       </c>
       <c r="C205" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D205" s="68" t="s">
+      <c r="D205" t="s">
         <v>32</v>
       </c>
       <c r="E205" s="76" t="s">
@@ -5249,67 +6281,67 @@
       <c r="I205" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J205" s="78"/>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
+      <c r="J205" s="82"/>
+    </row>
+    <row r="206" ht="14.25" customHeight="1" spans="1:10">
       <c r="A206" s="71"/>
       <c r="C206" s="71"/>
       <c r="E206" s="71"/>
-      <c r="G206" s="12"/>
+      <c r="G206" s="17"/>
       <c r="H206" s="71"/>
       <c r="I206" s="71"/>
       <c r="J206" s="71"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1" spans="1:10">
       <c r="A207" s="71"/>
       <c r="C207" s="71"/>
       <c r="E207" s="71"/>
-      <c r="G207" s="12"/>
+      <c r="G207" s="17"/>
       <c r="H207" s="71"/>
       <c r="I207" s="71"/>
       <c r="J207" s="71"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1" spans="1:10">
       <c r="A208" s="71"/>
       <c r="C208" s="71"/>
       <c r="E208" s="71"/>
-      <c r="G208" s="12"/>
+      <c r="G208" s="17"/>
       <c r="H208" s="71"/>
       <c r="I208" s="71"/>
       <c r="J208" s="71"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1" spans="1:10">
       <c r="A209" s="71"/>
       <c r="C209" s="71"/>
       <c r="E209" s="71"/>
-      <c r="G209" s="12"/>
+      <c r="G209" s="17"/>
       <c r="H209" s="71"/>
       <c r="I209" s="71"/>
       <c r="J209" s="71"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" customHeight="1" spans="1:10">
       <c r="A210" s="74"/>
       <c r="B210" s="73"/>
       <c r="C210" s="74"/>
       <c r="D210" s="73"/>
       <c r="E210" s="74"/>
       <c r="F210" s="73"/>
-      <c r="G210" s="17"/>
+      <c r="G210" s="20"/>
       <c r="H210" s="74"/>
       <c r="I210" s="74"/>
       <c r="J210" s="74"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" customHeight="1" spans="1:10">
       <c r="A211" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="68" t="s">
+      <c r="B211" t="s">
         <v>57</v>
       </c>
       <c r="C211" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D211" s="68" t="s">
+      <c r="D211" t="s">
         <v>32</v>
       </c>
       <c r="E211" s="69" t="s">
@@ -5326,62 +6358,62 @@
       </c>
       <c r="J211" s="71"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" customHeight="1" spans="1:10">
       <c r="A212" s="71"/>
       <c r="C212" s="71"/>
       <c r="E212" s="71"/>
-      <c r="G212" s="12"/>
+      <c r="G212" s="17"/>
       <c r="H212" s="71"/>
       <c r="I212" s="71"/>
       <c r="J212" s="71"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" customHeight="1" spans="1:10">
       <c r="A213" s="71"/>
       <c r="C213" s="71"/>
       <c r="E213" s="71"/>
-      <c r="G213" s="12"/>
+      <c r="G213" s="17"/>
       <c r="H213" s="71"/>
       <c r="I213" s="71"/>
       <c r="J213" s="71"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" customHeight="1" spans="1:10">
       <c r="A214" s="71"/>
       <c r="C214" s="71"/>
       <c r="E214" s="71"/>
-      <c r="G214" s="12"/>
+      <c r="G214" s="17"/>
       <c r="H214" s="71"/>
       <c r="I214" s="71"/>
       <c r="J214" s="71"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" customHeight="1" spans="1:10">
       <c r="A215" s="71"/>
       <c r="C215" s="71"/>
       <c r="E215" s="71"/>
-      <c r="G215" s="12"/>
+      <c r="G215" s="17"/>
       <c r="H215" s="71"/>
       <c r="I215" s="71"/>
       <c r="J215" s="71"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" customHeight="1" spans="1:10">
       <c r="A216" s="71"/>
       <c r="C216" s="71"/>
       <c r="E216" s="71"/>
-      <c r="G216" s="12"/>
+      <c r="G216" s="17"/>
       <c r="H216" s="71"/>
       <c r="I216" s="71"/>
       <c r="J216" s="71"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" customHeight="1" spans="1:10">
       <c r="A217" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B217" s="80" t="s">
+      <c r="B217" s="79" t="s">
         <v>57</v>
       </c>
       <c r="C217" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D217" s="80" t="s">
+      <c r="D217" s="79" t="s">
         <v>32</v>
       </c>
       <c r="E217" s="76" t="s">
@@ -5397,58 +6429,58 @@
       <c r="I217" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J217" s="78"/>
-    </row>
-    <row r="218" ht="14.25" customHeight="1">
+      <c r="J217" s="82"/>
+    </row>
+    <row r="218" ht="14.25" customHeight="1" spans="1:10">
       <c r="A218" s="71"/>
       <c r="C218" s="71"/>
       <c r="E218" s="71"/>
-      <c r="G218" s="12"/>
+      <c r="G218" s="17"/>
       <c r="H218" s="71"/>
       <c r="I218" s="71"/>
       <c r="J218" s="71"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" customHeight="1" spans="1:10">
       <c r="A219" s="71"/>
       <c r="C219" s="71"/>
       <c r="E219" s="71"/>
-      <c r="G219" s="12"/>
+      <c r="G219" s="17"/>
       <c r="H219" s="71"/>
       <c r="I219" s="71"/>
       <c r="J219" s="71"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" ht="14.25" customHeight="1" spans="1:10">
       <c r="A220" s="71"/>
       <c r="C220" s="71"/>
       <c r="E220" s="71"/>
-      <c r="G220" s="12"/>
+      <c r="G220" s="17"/>
       <c r="H220" s="71"/>
       <c r="I220" s="71"/>
       <c r="J220" s="71"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" ht="14.25" customHeight="1" spans="1:10">
       <c r="A221" s="74"/>
       <c r="B221" s="73"/>
       <c r="C221" s="74"/>
       <c r="D221" s="73"/>
       <c r="E221" s="74"/>
       <c r="F221" s="73"/>
-      <c r="G221" s="17"/>
+      <c r="G221" s="20"/>
       <c r="H221" s="74"/>
       <c r="I221" s="74"/>
       <c r="J221" s="74"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" ht="14.25" customHeight="1" spans="1:10">
       <c r="A222" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B222" s="80" t="s">
+      <c r="B222" s="79" t="s">
         <v>57</v>
       </c>
       <c r="C222" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D222" s="80" t="s">
+      <c r="D222" s="79" t="s">
         <v>32</v>
       </c>
       <c r="E222" s="76" t="s">
@@ -5464,58 +6496,58 @@
       <c r="I222" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J222" s="78"/>
-    </row>
-    <row r="223" ht="14.25" customHeight="1">
+      <c r="J222" s="82"/>
+    </row>
+    <row r="223" ht="14.25" customHeight="1" spans="1:10">
       <c r="A223" s="71"/>
       <c r="C223" s="71"/>
       <c r="E223" s="71"/>
-      <c r="G223" s="12"/>
+      <c r="G223" s="17"/>
       <c r="H223" s="71"/>
       <c r="I223" s="71"/>
       <c r="J223" s="71"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" ht="14.25" customHeight="1" spans="1:10">
       <c r="A224" s="71"/>
       <c r="C224" s="71"/>
       <c r="E224" s="71"/>
-      <c r="G224" s="12"/>
+      <c r="G224" s="17"/>
       <c r="H224" s="71"/>
       <c r="I224" s="71"/>
       <c r="J224" s="71"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" ht="14.25" customHeight="1" spans="1:10">
       <c r="A225" s="71"/>
       <c r="C225" s="71"/>
       <c r="E225" s="71"/>
-      <c r="G225" s="12"/>
+      <c r="G225" s="17"/>
       <c r="H225" s="71"/>
       <c r="I225" s="71"/>
       <c r="J225" s="71"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" ht="14.25" customHeight="1" spans="1:10">
       <c r="A226" s="74"/>
       <c r="B226" s="73"/>
       <c r="C226" s="74"/>
       <c r="D226" s="73"/>
       <c r="E226" s="74"/>
       <c r="F226" s="73"/>
-      <c r="G226" s="17"/>
+      <c r="G226" s="20"/>
       <c r="H226" s="74"/>
       <c r="I226" s="74"/>
       <c r="J226" s="74"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" ht="14.25" customHeight="1" spans="1:10">
       <c r="A227" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B227" s="80" t="s">
+      <c r="B227" s="79" t="s">
         <v>57</v>
       </c>
       <c r="C227" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D227" s="80" t="s">
+      <c r="D227" s="79" t="s">
         <v>32</v>
       </c>
       <c r="E227" s="76" t="s">
@@ -5531,58 +6563,58 @@
       <c r="I227" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J227" s="78"/>
-    </row>
-    <row r="228" ht="14.25" customHeight="1">
+      <c r="J227" s="82"/>
+    </row>
+    <row r="228" ht="14.25" customHeight="1" spans="1:10">
       <c r="A228" s="71"/>
       <c r="C228" s="71"/>
       <c r="E228" s="71"/>
-      <c r="G228" s="12"/>
+      <c r="G228" s="17"/>
       <c r="H228" s="71"/>
       <c r="I228" s="71"/>
       <c r="J228" s="71"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" ht="14.25" customHeight="1" spans="1:10">
       <c r="A229" s="71"/>
       <c r="C229" s="71"/>
       <c r="E229" s="71"/>
-      <c r="G229" s="12"/>
+      <c r="G229" s="17"/>
       <c r="H229" s="71"/>
       <c r="I229" s="71"/>
       <c r="J229" s="71"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" ht="14.25" customHeight="1" spans="1:10">
       <c r="A230" s="71"/>
       <c r="C230" s="71"/>
       <c r="E230" s="71"/>
-      <c r="G230" s="12"/>
+      <c r="G230" s="17"/>
       <c r="H230" s="71"/>
       <c r="I230" s="71"/>
       <c r="J230" s="71"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" ht="14.25" customHeight="1" spans="1:10">
       <c r="A231" s="74"/>
       <c r="B231" s="73"/>
       <c r="C231" s="74"/>
       <c r="D231" s="73"/>
       <c r="E231" s="74"/>
       <c r="F231" s="73"/>
-      <c r="G231" s="17"/>
+      <c r="G231" s="20"/>
       <c r="H231" s="74"/>
       <c r="I231" s="74"/>
       <c r="J231" s="74"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" ht="14.25" customHeight="1" spans="1:10">
       <c r="A232" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B232" s="80" t="s">
+      <c r="B232" s="79" t="s">
         <v>57</v>
       </c>
       <c r="C232" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D232" s="80" t="s">
+      <c r="D232" s="79" t="s">
         <v>32</v>
       </c>
       <c r="E232" s="76" t="s">
@@ -5598,58 +6630,58 @@
       <c r="I232" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="J232" s="78"/>
-    </row>
-    <row r="233" ht="14.25" customHeight="1">
+      <c r="J232" s="82"/>
+    </row>
+    <row r="233" ht="14.25" customHeight="1" spans="1:10">
       <c r="A233" s="71"/>
       <c r="C233" s="71"/>
       <c r="E233" s="71"/>
-      <c r="G233" s="12"/>
+      <c r="G233" s="17"/>
       <c r="H233" s="71"/>
       <c r="I233" s="71"/>
       <c r="J233" s="71"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" ht="14.25" customHeight="1" spans="1:10">
       <c r="A234" s="71"/>
       <c r="C234" s="71"/>
       <c r="E234" s="71"/>
-      <c r="G234" s="12"/>
+      <c r="G234" s="17"/>
       <c r="H234" s="71"/>
       <c r="I234" s="71"/>
       <c r="J234" s="71"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" ht="14.25" customHeight="1" spans="1:10">
       <c r="A235" s="71"/>
       <c r="C235" s="71"/>
       <c r="E235" s="71"/>
-      <c r="G235" s="12"/>
+      <c r="G235" s="17"/>
       <c r="H235" s="71"/>
       <c r="I235" s="71"/>
       <c r="J235" s="71"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" ht="14.25" customHeight="1" spans="1:10">
       <c r="A236" s="74"/>
       <c r="B236" s="73"/>
       <c r="C236" s="74"/>
       <c r="D236" s="73"/>
       <c r="E236" s="74"/>
       <c r="F236" s="73"/>
-      <c r="G236" s="17"/>
+      <c r="G236" s="20"/>
       <c r="H236" s="74"/>
       <c r="I236" s="74"/>
       <c r="J236" s="74"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" ht="14.25" customHeight="1" spans="1:10">
       <c r="A237" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B237" s="80" t="s">
+      <c r="B237" s="79" t="s">
         <v>57</v>
       </c>
       <c r="C237" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D237" s="80" t="s">
+      <c r="D237" s="79" t="s">
         <v>32</v>
       </c>
       <c r="E237" s="76" t="s">
@@ -5665,136 +6697,136 @@
       <c r="I237" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J237" s="78"/>
-    </row>
-    <row r="238" ht="14.25" customHeight="1">
+      <c r="J237" s="82"/>
+    </row>
+    <row r="238" ht="14.25" customHeight="1" spans="1:10">
       <c r="A238" s="71"/>
       <c r="C238" s="71"/>
       <c r="E238" s="71"/>
-      <c r="G238" s="12"/>
+      <c r="G238" s="17"/>
       <c r="H238" s="71"/>
       <c r="I238" s="71"/>
       <c r="J238" s="71"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" ht="14.25" customHeight="1" spans="1:10">
       <c r="A239" s="71"/>
       <c r="C239" s="71"/>
       <c r="E239" s="71"/>
-      <c r="G239" s="12"/>
+      <c r="G239" s="17"/>
       <c r="H239" s="71"/>
       <c r="I239" s="71"/>
       <c r="J239" s="71"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" ht="14.25" customHeight="1" spans="1:10">
       <c r="A240" s="71"/>
       <c r="C240" s="71"/>
       <c r="E240" s="71"/>
-      <c r="G240" s="12"/>
+      <c r="G240" s="17"/>
       <c r="H240" s="71"/>
       <c r="I240" s="71"/>
       <c r="J240" s="71"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" ht="14.25" customHeight="1" spans="1:10">
       <c r="A241" s="74"/>
       <c r="B241" s="73"/>
       <c r="C241" s="74"/>
       <c r="D241" s="73"/>
       <c r="E241" s="74"/>
       <c r="F241" s="73"/>
-      <c r="G241" s="17"/>
+      <c r="G241" s="20"/>
       <c r="H241" s="74"/>
       <c r="I241" s="74"/>
       <c r="J241" s="74"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
-      <c r="A242" s="79" t="s">
+    <row r="242" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A242" s="78" t="s">
         <v>192</v>
       </c>
       <c r="B242" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="C242" s="80" t="s">
+      <c r="C242" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D242" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E242" s="80" t="s">
+      <c r="E242" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="F242" s="78"/>
-      <c r="G242" s="80" t="s">
+      <c r="F242" s="82"/>
+      <c r="G242" s="79" t="s">
         <v>194</v>
       </c>
       <c r="H242" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="I242" s="80" t="s">
+      <c r="I242" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="J242" s="78"/>
-    </row>
-    <row r="243" ht="14.25" customHeight="1">
-      <c r="A243" s="81"/>
+      <c r="J242" s="82"/>
+    </row>
+    <row r="243" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A243" s="80"/>
       <c r="B243" s="71"/>
       <c r="D243" s="71"/>
       <c r="F243" s="71"/>
-      <c r="H243" s="12"/>
+      <c r="H243" s="17"/>
       <c r="J243" s="71"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
-      <c r="A244" s="81"/>
+    <row r="244" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A244" s="80"/>
       <c r="B244" s="71"/>
       <c r="D244" s="71"/>
       <c r="F244" s="71"/>
-      <c r="H244" s="12"/>
+      <c r="H244" s="17"/>
       <c r="J244" s="71"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
-      <c r="A245" s="81"/>
+    <row r="245" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A245" s="80"/>
       <c r="B245" s="71"/>
       <c r="D245" s="71"/>
       <c r="F245" s="71"/>
-      <c r="H245" s="12"/>
+      <c r="H245" s="17"/>
       <c r="J245" s="71"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
-      <c r="A246" s="82"/>
+    <row r="246" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A246" s="81"/>
       <c r="B246" s="74"/>
       <c r="C246" s="73"/>
       <c r="D246" s="74"/>
       <c r="E246" s="73"/>
       <c r="F246" s="74"/>
-      <c r="G246" s="27"/>
-      <c r="H246" s="17"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="20"/>
       <c r="I246" s="73"/>
       <c r="J246" s="74"/>
     </row>
     <row r="247" ht="14.25" customHeight="1"/>
     <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1">
-      <c r="A249" s="68">
-        <v>10.0</v>
-      </c>
-      <c r="B249" s="68" t="s">
+    <row r="249" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A249">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
-      <c r="A250" s="68">
-        <v>36.0</v>
-      </c>
-      <c r="B250" s="68" t="s">
+    <row r="250" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A250">
+        <v>36</v>
+      </c>
+      <c r="B250" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1"/>
     <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" ht="15.75" customHeight="1" spans="7:7">
       <c r="G253" s="84"/>
     </row>
     <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" ht="15.75" customHeight="1" spans="8:8">
       <c r="H255" s="85"/>
     </row>
     <row r="256" ht="15.75" customHeight="1"/>
@@ -6544,78 +7576,54 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G108:G114"/>
-    <mergeCell ref="G115:G122"/>
-    <mergeCell ref="H115:H122"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="G128:G133"/>
-    <mergeCell ref="H128:H133"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="H134:H138"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="G144:G148"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="G154:G158"/>
-    <mergeCell ref="G159:G162"/>
-    <mergeCell ref="G163:G167"/>
-    <mergeCell ref="H163:H167"/>
-    <mergeCell ref="G168:G170"/>
-    <mergeCell ref="G171:G177"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="G178:G185"/>
-    <mergeCell ref="H178:H180"/>
-    <mergeCell ref="G186:G193"/>
-    <mergeCell ref="H186:H188"/>
-    <mergeCell ref="G194:G198"/>
-    <mergeCell ref="G199:G204"/>
-    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E128:E129"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G37"/>
     <mergeCell ref="G38:G42"/>
-    <mergeCell ref="E43:E47"/>
     <mergeCell ref="G43:G47"/>
     <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H48:H51"/>
     <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G37"/>
     <mergeCell ref="G56:G62"/>
     <mergeCell ref="G63:G69"/>
     <mergeCell ref="G70:G75"/>
     <mergeCell ref="G76:G83"/>
     <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G97:G99"/>
     <mergeCell ref="G100:G104"/>
     <mergeCell ref="G105:G107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="G108:G114"/>
+    <mergeCell ref="G115:G122"/>
     <mergeCell ref="G123:G127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="H100:H104"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="G242:G246"/>
-    <mergeCell ref="H242:H246"/>
+    <mergeCell ref="G128:G133"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="G144:G148"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="G154:G158"/>
+    <mergeCell ref="G159:G162"/>
+    <mergeCell ref="G163:G167"/>
+    <mergeCell ref="G168:G170"/>
+    <mergeCell ref="G171:G177"/>
+    <mergeCell ref="G178:G185"/>
+    <mergeCell ref="G186:G193"/>
+    <mergeCell ref="G194:G198"/>
+    <mergeCell ref="G199:G204"/>
     <mergeCell ref="G205:G210"/>
     <mergeCell ref="G211:G216"/>
     <mergeCell ref="G217:G221"/>
@@ -6623,123 +7631,147 @@
     <mergeCell ref="G227:G231"/>
     <mergeCell ref="G232:G236"/>
     <mergeCell ref="G237:G241"/>
+    <mergeCell ref="G242:G246"/>
     <mergeCell ref="G253:G254"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="H100:H104"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H115:H122"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="H128:H133"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="H163:H167"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H178:H180"/>
+    <mergeCell ref="H186:H188"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="H242:H246"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="76.57"/>
-    <col customWidth="1" min="3" max="6" width="8.71"/>
+    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="76.5714285714286" customWidth="1"/>
+    <col min="3" max="6" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="2" t="s">
+    <row r="4" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B4" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="86" t="s">
+    <row r="5" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B5" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="86" t="s">
+    <row r="6" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="86" t="s">
+    <row r="7" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B7" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="86" t="s">
+    <row r="8" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B8" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="86" t="s">
+    <row r="9" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B9" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="86" t="s">
+    <row r="10" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B10" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="86" t="s">
+    <row r="11" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="86"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="86"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="86"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="2"/>
+    <row r="12" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B23" s="1"/>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="87"/>
+    <row r="25" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="2:2">
+      <c r="B27" s="3"/>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -6840,89 +7872,89 @@
     <row r="124" ht="14.25" customHeight="1"/>
     <row r="125" ht="14.25" customHeight="1"/>
     <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="B127" s="88" t="s">
+    <row r="127" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B127" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="89" t="s">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B128" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C128" s="88" t="s">
+      <c r="C128" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="89" t="s">
+    <row r="129" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B129" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C129" s="88" t="s">
+      <c r="C129" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="89" t="s">
+    <row r="130" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B130" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C130" s="88" t="s">
+      <c r="C130" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="89" t="s">
+    <row r="131" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B131" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C131" s="88" t="s">
+      <c r="C131" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="89" t="s">
+    <row r="132" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B132" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C132" s="88" t="s">
+      <c r="C132" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="89" t="s">
+    <row r="133" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B133" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C133" s="88" t="s">
+      <c r="C133" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="89" t="s">
+    <row r="134" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B134" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C134" s="88" t="s">
+      <c r="C134" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="89" t="s">
+    <row r="135" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B135" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C135" s="88" t="s">
+      <c r="C135" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="89" t="s">
+    <row r="136" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B136" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C136" s="88" t="s">
+      <c r="C136" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="89" t="s">
+    <row r="137" ht="14.25" customHeight="1" spans="2:3">
+      <c r="B137" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="88" t="s">
+      <c r="C137" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7790,9 +8822,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -113,7 +113,7 @@
     <t>1. Приложение установлено на ПК</t>
   </si>
   <si>
-    <t xml:space="preserve">2. </t>
+    <t>2. увдлоудлоумдулвльджусуджсбус</t>
   </si>
   <si>
     <t xml:space="preserve">3. </t>
@@ -3327,8 +3327,8 @@
   <sheetPr/>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:J251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -113,7 +113,7 @@
     <t>1. Приложение установлено на ПК</t>
   </si>
   <si>
-    <t>2. увдлоудлоумдулвльджусуджсбус</t>
+    <t xml:space="preserve">2. </t>
   </si>
   <si>
     <t xml:space="preserve">3. </t>
@@ -3327,8 +3327,8 @@
   <sheetPr/>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A7:J251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
